--- a/analysis/results/Q3/beta_diversity/beta_diversity_results_terminal_ileum.xlsx
+++ b/analysis/results/Q3/beta_diversity/beta_diversity_results_terminal_ileum.xlsx
@@ -416,19 +416,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>204.897106199522</v>
+        <v>165.293389189617</v>
       </c>
       <c r="D2" t="n">
-        <v>1.14816306892676</v>
+        <v>0.975378878354533</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0110196902957515</v>
+        <v>0.00465382226736212</v>
       </c>
       <c r="F2" t="n">
-        <v>0.175</v>
+        <v>0.496</v>
       </c>
       <c r="G2" t="n">
-        <v>0.175</v>
+        <v>0.496</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -442,13 +442,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>562.985483099219</v>
+        <v>609.984191119387</v>
       </c>
       <c r="D3" t="n">
-        <v>3.15474997195408</v>
+        <v>3.59945245883673</v>
       </c>
       <c r="E3" t="n">
-        <v>0.030278249311712</v>
+        <v>0.0171740565384244</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>168.941880925933</v>
+        <v>185.467947264038</v>
       </c>
       <c r="D4" t="n">
-        <v>0.946174522761469</v>
+        <v>1.09493363958396</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0090859614384825</v>
+        <v>0.00522183535040941</v>
       </c>
       <c r="F4" t="n">
-        <v>0.564</v>
+        <v>0.259</v>
       </c>
       <c r="G4" t="n">
-        <v>0.564</v>
+        <v>0.259</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
